--- a/techniqo/data_new_ticker/ADANITRANS.xlsx
+++ b/techniqo/data_new_ticker/ADANITRANS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1267"/>
+  <dimension ref="A1:G1269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44731,6 +44731,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1268" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>275.25</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>269.15</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>328868</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1269" t="n">
+        <v>267</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>265.35</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>391621</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ADANITRANS.xlsx
+++ b/techniqo/data_new_ticker/ADANITRANS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1269"/>
+  <dimension ref="A1:G1271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44781,6 +44781,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1270" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>269.55</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>261</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>262.1</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>342100</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1271" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>265.45</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>256</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>257.95</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>238374</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
